--- a/saif_countries.xlsx
+++ b/saif_countries.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\Desktop\SAA_BCSK\ETL---WHI-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB5FBB9-2713-4E1E-A588-59208A8B86CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6D864D-645B-4D4C-9348-C28FD137CEDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="saif_countries" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">saif_countries!$A$1:$H$266</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2475,10 +2478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2591,7 +2595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2614,7 +2618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2663,7 +2667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2686,7 +2690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2764,7 +2768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2865,7 +2869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2934,7 +2938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -3211,7 +3215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -3234,7 +3238,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -3332,7 +3336,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -3436,7 +3440,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -3459,7 +3463,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -3508,7 +3512,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -3560,7 +3564,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -3661,7 +3665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -3684,7 +3688,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -3750,7 +3754,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -3796,7 +3800,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -3822,7 +3826,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -3917,7 +3921,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -3940,7 +3944,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -3989,7 +3993,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -4015,7 +4019,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -4041,7 +4045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -4067,7 +4071,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -4113,7 +4117,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>139</v>
       </c>
@@ -4159,7 +4163,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -4185,7 +4189,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -4234,7 +4238,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -4286,7 +4290,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -4312,7 +4316,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -4338,7 +4342,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -4364,7 +4368,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -4384,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -4410,7 +4414,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>163</v>
       </c>
@@ -4433,7 +4437,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>165</v>
       </c>
@@ -4485,7 +4489,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>169</v>
       </c>
@@ -4537,7 +4541,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>173</v>
       </c>
@@ -4586,7 +4590,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>177</v>
       </c>
@@ -4684,7 +4688,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>185</v>
       </c>
@@ -4733,7 +4737,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>189</v>
       </c>
@@ -4756,7 +4760,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>191</v>
       </c>
@@ -4779,7 +4783,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>193</v>
       </c>
@@ -4854,7 +4858,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>199</v>
       </c>
@@ -4877,7 +4881,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>201</v>
       </c>
@@ -4929,7 +4933,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>205</v>
       </c>
@@ -4955,7 +4959,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>207</v>
       </c>
@@ -5007,7 +5011,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>211</v>
       </c>
@@ -5056,7 +5060,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>215</v>
       </c>
@@ -5108,7 +5112,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>219</v>
       </c>
@@ -5134,7 +5138,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>221</v>
       </c>
@@ -5160,7 +5164,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>223</v>
       </c>
@@ -5186,7 +5190,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>225</v>
       </c>
@@ -5264,7 +5268,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>231</v>
       </c>
@@ -5336,7 +5340,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>237</v>
       </c>
@@ -5541,7 +5545,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>253</v>
       </c>
@@ -5564,7 +5568,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>255</v>
       </c>
@@ -5581,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>257</v>
       </c>
@@ -5653,7 +5657,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>263</v>
       </c>
@@ -5679,7 +5683,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>265</v>
       </c>
@@ -5702,7 +5706,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>267</v>
       </c>
@@ -5728,7 +5732,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>269</v>
       </c>
@@ -5754,7 +5758,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>271</v>
       </c>
@@ -5780,7 +5784,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>273</v>
       </c>
@@ -5826,7 +5830,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>277</v>
       </c>
@@ -5953,7 +5957,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>287</v>
       </c>
@@ -6002,7 +6006,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>291</v>
       </c>
@@ -6028,7 +6032,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>293</v>
       </c>
@@ -6054,7 +6058,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>295</v>
       </c>
@@ -6106,7 +6110,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>299</v>
       </c>
@@ -6207,7 +6211,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>307</v>
       </c>
@@ -6282,7 +6286,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>313</v>
       </c>
@@ -6383,7 +6387,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>321</v>
       </c>
@@ -6400,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>323</v>
       </c>
@@ -6426,7 +6430,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>325</v>
       </c>
@@ -6452,7 +6456,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>327</v>
       </c>
@@ -6472,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>329</v>
       </c>
@@ -6524,7 +6528,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>333</v>
       </c>
@@ -6700,7 +6704,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>347</v>
       </c>
@@ -6775,7 +6779,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>353</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>363</v>
       </c>
@@ -6928,7 +6932,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>365</v>
       </c>
@@ -6954,7 +6958,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>367</v>
       </c>
@@ -7003,7 +7007,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>371</v>
       </c>
@@ -7020,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>373</v>
       </c>
@@ -7046,7 +7050,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>375</v>
       </c>
@@ -7072,7 +7076,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>377</v>
       </c>
@@ -7095,7 +7099,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>379</v>
       </c>
@@ -7144,7 +7148,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>383</v>
       </c>
@@ -7193,7 +7197,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>387</v>
       </c>
@@ -7349,7 +7353,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>399</v>
       </c>
@@ -7375,7 +7379,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>401</v>
       </c>
@@ -7401,7 +7405,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>403</v>
       </c>
@@ -7473,7 +7477,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>409</v>
       </c>
@@ -7519,7 +7523,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>413</v>
       </c>
@@ -7542,7 +7546,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>415</v>
       </c>
@@ -7565,7 +7569,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>417</v>
       </c>
@@ -7660,7 +7664,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>425</v>
       </c>
@@ -7738,7 +7742,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>431</v>
       </c>
@@ -7761,7 +7765,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>433</v>
       </c>
@@ -7813,7 +7817,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>437</v>
       </c>
@@ -7836,7 +7840,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>439</v>
       </c>
@@ -7908,7 +7912,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>445</v>
       </c>
@@ -7934,7 +7938,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>447</v>
       </c>
@@ -8038,7 +8042,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>455</v>
       </c>
@@ -8061,7 +8065,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>457</v>
       </c>
@@ -8084,7 +8088,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>459</v>
       </c>
@@ -8107,7 +8111,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>461</v>
       </c>
@@ -8130,7 +8134,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>463</v>
       </c>
@@ -8156,7 +8160,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>465</v>
       </c>
@@ -8182,7 +8186,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>467</v>
       </c>
@@ -8228,7 +8232,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>471</v>
       </c>
@@ -8303,7 +8307,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>477</v>
       </c>
@@ -8401,7 +8405,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>485</v>
       </c>
@@ -8453,7 +8457,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>489</v>
       </c>
@@ -8476,7 +8480,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>491</v>
       </c>
@@ -8577,7 +8581,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>499</v>
       </c>
@@ -8600,7 +8604,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>501</v>
       </c>
@@ -8750,7 +8754,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>513</v>
       </c>
@@ -8828,7 +8832,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>519</v>
       </c>
@@ -8851,7 +8855,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>521</v>
       </c>
@@ -8891,7 +8895,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>525</v>
       </c>
@@ -8908,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>527</v>
       </c>
@@ -8931,7 +8935,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>529</v>
       </c>
@@ -8957,7 +8961,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>531</v>
       </c>
@@ -9026,12 +9030,155 @@
         <v>535</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>537</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H266" xr:uid="{8C4A0B2D-BC1D-408F-8D4B-4D546517B96A}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="10"/>
+        <filter val="100"/>
+        <filter val="101"/>
+        <filter val="102"/>
+        <filter val="103"/>
+        <filter val="104"/>
+        <filter val="105"/>
+        <filter val="107"/>
+        <filter val="108"/>
+        <filter val="11"/>
+        <filter val="110"/>
+        <filter val="111"/>
+        <filter val="112"/>
+        <filter val="113"/>
+        <filter val="114"/>
+        <filter val="115"/>
+        <filter val="116"/>
+        <filter val="117"/>
+        <filter val="119"/>
+        <filter val="12"/>
+        <filter val="120"/>
+        <filter val="121"/>
+        <filter val="122"/>
+        <filter val="123"/>
+        <filter val="124"/>
+        <filter val="126"/>
+        <filter val="127"/>
+        <filter val="128"/>
+        <filter val="13"/>
+        <filter val="130"/>
+        <filter val="131"/>
+        <filter val="132"/>
+        <filter val="133"/>
+        <filter val="134"/>
+        <filter val="135"/>
+        <filter val="138"/>
+        <filter val="139"/>
+        <filter val="14"/>
+        <filter val="140"/>
+        <filter val="141"/>
+        <filter val="143"/>
+        <filter val="144"/>
+        <filter val="145"/>
+        <filter val="146"/>
+        <filter val="147"/>
+        <filter val="148"/>
+        <filter val="149"/>
+        <filter val="15"/>
+        <filter val="150"/>
+        <filter val="151"/>
+        <filter val="152"/>
+        <filter val="154"/>
+        <filter val="156"/>
+        <filter val="157"/>
+        <filter val="16"/>
+        <filter val="17"/>
+        <filter val="18"/>
+        <filter val="19"/>
+        <filter val="2"/>
+        <filter val="20"/>
+        <filter val="21"/>
+        <filter val="22"/>
+        <filter val="23"/>
+        <filter val="24"/>
+        <filter val="25"/>
+        <filter val="26"/>
+        <filter val="27"/>
+        <filter val="28"/>
+        <filter val="29"/>
+        <filter val="3"/>
+        <filter val="30"/>
+        <filter val="31"/>
+        <filter val="32"/>
+        <filter val="35"/>
+        <filter val="36"/>
+        <filter val="37"/>
+        <filter val="38"/>
+        <filter val="39"/>
+        <filter val="4"/>
+        <filter val="40"/>
+        <filter val="41"/>
+        <filter val="43"/>
+        <filter val="44"/>
+        <filter val="45"/>
+        <filter val="46"/>
+        <filter val="47"/>
+        <filter val="48"/>
+        <filter val="49"/>
+        <filter val="5"/>
+        <filter val="50"/>
+        <filter val="51"/>
+        <filter val="52"/>
+        <filter val="53"/>
+        <filter val="54"/>
+        <filter val="55"/>
+        <filter val="56"/>
+        <filter val="58"/>
+        <filter val="59"/>
+        <filter val="6"/>
+        <filter val="60"/>
+        <filter val="61"/>
+        <filter val="63"/>
+        <filter val="64"/>
+        <filter val="65"/>
+        <filter val="66"/>
+        <filter val="68"/>
+        <filter val="69"/>
+        <filter val="7"/>
+        <filter val="70"/>
+        <filter val="71"/>
+        <filter val="72"/>
+        <filter val="73"/>
+        <filter val="74"/>
+        <filter val="77"/>
+        <filter val="78"/>
+        <filter val="79"/>
+        <filter val="8"/>
+        <filter val="80"/>
+        <filter val="81"/>
+        <filter val="82"/>
+        <filter val="83"/>
+        <filter val="85"/>
+        <filter val="86"/>
+        <filter val="87"/>
+        <filter val="88"/>
+        <filter val="89"/>
+        <filter val="9"/>
+        <filter val="90"/>
+        <filter val="91"/>
+        <filter val="92"/>
+        <filter val="93"/>
+        <filter val="94"/>
+        <filter val="95"/>
+        <filter val="96"/>
+        <filter val="97"/>
+        <filter val="98"/>
+        <filter val="99"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>